--- a/Lab7/Data/Part3LC.xlsx
+++ b/Lab7/Data/Part3LC.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murtadha\Desktop\Lab 5 Electrical Resonance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viraj/Google_Drive/Queens/second_year/semester_two/ENPHYS253/Lab7/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16560" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,22 +32,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Resonant Frequency [kHz]</t>
+    <t>Resonant Frequency [kHz] +/- 0.1 [kHz]</t>
   </si>
   <si>
-    <t>VC [V]</t>
+    <t>Phase Shift [Degrees] +/- 2 [Degrees]</t>
   </si>
   <si>
-    <t>VL [V]</t>
+    <t>VL [V] +/- 0.07 [V]</t>
   </si>
   <si>
-    <t>Phase Shift [Degrees]</t>
+    <t>VC [V] +/- 0.07 [V]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,26 +396,26 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9.4700000000000006</v>
       </c>
